--- a/Matlab code/dataset_xcoor.xlsx
+++ b/Matlab code/dataset_xcoor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\NDSS_2023\Event triggered intersection\Event-triggered Intersection - Carla\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabbir92\Documents\GitHub\Trust_based_CBF\Matlab code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFE8747-00CB-42D3-B47C-DFCC86727FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2874F9-9496-48F5-934E-88DEFFB2B85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{B561277D-02FB-46CC-96DE-9AA127F19F00}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="8170" xr2:uid="{B561277D-02FB-46CC-96DE-9AA127F19F00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,9 +388,9 @@
       <selection sqref="A1:AGL25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -8357,94 +8357,94 @@
         <v>234.78478007985194</v>
       </c>
       <c r="AR4">
-        <v>235.62775118975534</v>
+        <v>235.62775118975532</v>
       </c>
       <c r="AS4">
-        <v>236.47738803693244</v>
+        <v>236.47738803693238</v>
       </c>
       <c r="AT4">
-        <v>237.33674478796263</v>
+        <v>237.33674478796252</v>
       </c>
       <c r="AU4">
-        <v>238.20696621814341</v>
+        <v>238.20696621814329</v>
       </c>
       <c r="AV4">
-        <v>239.0884037903534</v>
+        <v>239.08840379035331</v>
       </c>
       <c r="AW4">
-        <v>239.98108076699242</v>
+        <v>239.98108076699231</v>
       </c>
       <c r="AX4">
-        <v>240.88488599666005</v>
+        <v>240.88488599665996</v>
       </c>
       <c r="AY4">
-        <v>241.79965459434445</v>
+        <v>241.79965459434433</v>
       </c>
       <c r="AZ4">
-        <v>242.72520150396429</v>
+        <v>242.72520150396417</v>
       </c>
       <c r="BA4">
-        <v>243.66133542448677</v>
+        <v>243.66133542448665</v>
       </c>
       <c r="BB4">
-        <v>244.6078645571198</v>
+        <v>244.60786455711971</v>
       </c>
       <c r="BC4">
-        <v>245.56459894820608</v>
+        <v>245.564598948206</v>
       </c>
       <c r="BD4">
-        <v>246.53135141706494</v>
+        <v>246.53135141706485</v>
       </c>
       <c r="BE4">
-        <v>247.50793789720402</v>
+        <v>247.50793789720399</v>
       </c>
       <c r="BF4">
-        <v>248.4941775356466</v>
+        <v>248.49417753564663</v>
       </c>
       <c r="BG4">
-        <v>249.48989269366282</v>
+        <v>249.48989269366291</v>
       </c>
       <c r="BH4">
-        <v>250.4949089082393</v>
+        <v>250.49490890823938</v>
       </c>
       <c r="BI4">
-        <v>251.50905483875471</v>
+        <v>251.50905483875479</v>
       </c>
       <c r="BJ4">
-        <v>252.53216220887938</v>
+        <v>252.53216220887947</v>
       </c>
       <c r="BK4">
-        <v>253.56406574767865</v>
+        <v>253.56406574767874</v>
       </c>
       <c r="BL4">
-        <v>254.60460313144912</v>
+        <v>254.60460313144921</v>
       </c>
       <c r="BM4">
-        <v>255.65361492681632</v>
+        <v>255.6536149268164</v>
       </c>
       <c r="BN4">
-        <v>256.7109445352242</v>
+        <v>256.71094453522426</v>
       </c>
       <c r="BO4">
-        <v>257.77643813880047</v>
+        <v>257.77643813880053</v>
       </c>
       <c r="BP4">
-        <v>258.84994464753083</v>
+        <v>258.84994464753089</v>
       </c>
       <c r="BQ4">
-        <v>259.93131564765997</v>
+        <v>259.93131564766003</v>
       </c>
       <c r="BR4">
-        <v>261.02040535125838</v>
+        <v>261.02040535125843</v>
       </c>
       <c r="BS4">
-        <v>262.1170705468931</v>
+        <v>262.11707054689316</v>
       </c>
       <c r="BT4">
-        <v>263.22117055132873</v>
+        <v>263.22117055132878</v>
       </c>
       <c r="BU4">
-        <v>264.33256716223099</v>
+        <v>264.33256716223104</v>
       </c>
       <c r="BV4">
         <v>265.45112462312545</v>
@@ -8495,13 +8495,13 @@
         <v>280.99528092026173</v>
       </c>
       <c r="CL4">
-        <v>282.02014531556028</v>
+        <v>282.02014531556034</v>
       </c>
       <c r="CM4">
-        <v>283.04453584577823</v>
+        <v>283.04453584577828</v>
       </c>
       <c r="CN4">
-        <v>284.06846158060671</v>
+        <v>284.06846158060677</v>
       </c>
       <c r="CO4">
         <v>285.09193139293887</v>
@@ -8534,13 +8534,13 @@
         <v>293.76858130782716</v>
       </c>
       <c r="CY4">
-        <v>294.33627187973769</v>
+        <v>294.33627187973775</v>
       </c>
       <c r="CZ4">
         <v>294.87215906647361</v>
       </c>
       <c r="DA4">
-        <v>295.06388475247326</v>
+        <v>295.06388475247331</v>
       </c>
       <c r="DB4">
         <v>295.21908436446563</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
@@ -16062,7 +16062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -16283,7 +16283,7 @@
         <v>296.02978057965504</v>
       </c>
       <c r="BV7">
-        <v>295.99606555722295</v>
+        <v>295.99606555722301</v>
       </c>
       <c r="BW7">
         <v>295.96237164335105</v>
@@ -16301,7 +16301,7 @@
         <v>295.82776321077353</v>
       </c>
       <c r="CB7">
-        <v>295.79414332090516</v>
+        <v>295.79414332090511</v>
       </c>
       <c r="CC7">
         <v>295.76053300711749</v>
@@ -16334,7 +16334,7 @@
         <v>295.45322699045221</v>
       </c>
       <c r="CM7">
-        <v>295.42232570148548</v>
+        <v>295.42232570148553</v>
       </c>
       <c r="CN7">
         <v>295.38909142372626</v>
@@ -16367,7 +16367,7 @@
         <v>295.20111944185908</v>
       </c>
       <c r="CX7">
-        <v>295.20703446029609</v>
+        <v>295.20703446029603</v>
       </c>
       <c r="CY7">
         <v>295.21538727442538</v>
@@ -16379,7 +16379,7 @@
         <v>295.23273645342863</v>
       </c>
       <c r="DB7">
-        <v>295.24092204965967</v>
+        <v>295.24092204965973</v>
       </c>
       <c r="DC7">
         <v>295.24870702332908</v>
@@ -16394,7 +16394,7 @@
         <v>295.27029432733264</v>
       </c>
       <c r="DG7">
-        <v>295.27709984600051</v>
+        <v>295.27709984600057</v>
       </c>
       <c r="DH7">
         <v>295.28377653719025</v>
@@ -18674,7 +18674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
@@ -21286,7 +21286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0</v>
       </c>
@@ -21549,7 +21549,7 @@
         <v>302.39133977253994</v>
       </c>
       <c r="CJ9">
-        <v>302.39185762582304</v>
+        <v>302.39185762582298</v>
       </c>
       <c r="CK9">
         <v>302.39237393381347</v>
@@ -21567,13 +21567,13 @@
         <v>302.39442413412655</v>
       </c>
       <c r="CP9">
-        <v>302.39493305817234</v>
+        <v>302.3949330581724</v>
       </c>
       <c r="CQ9">
         <v>302.39544058595288</v>
       </c>
       <c r="CR9">
-        <v>302.3959467440061</v>
+        <v>302.39594674400615</v>
       </c>
       <c r="CS9">
         <v>302.39645155840259</v>
@@ -21582,7 +21582,7 @@
         <v>302.39695505473151</v>
       </c>
       <c r="CU9">
-        <v>302.39745725810138</v>
+        <v>302.39745725810144</v>
       </c>
       <c r="CV9">
         <v>302.39795819314497</v>
@@ -21600,7 +21600,7 @@
         <v>302.39982267416144</v>
       </c>
       <c r="DA9">
-        <v>302.39999670889893</v>
+        <v>302.39999670889898</v>
       </c>
       <c r="DB9">
         <v>302.39999978962595</v>
@@ -21627,7 +21627,7 @@
         <v>302.39999999999981</v>
       </c>
       <c r="DJ9">
-        <v>302.39999999999998</v>
+        <v>302.39999999999992</v>
       </c>
       <c r="DK9">
         <v>302.39999999999998</v>
@@ -21642,274 +21642,274 @@
         <v>302.39132340249614</v>
       </c>
       <c r="DO9">
-        <v>302.38642807054669</v>
+        <v>302.38642807054663</v>
       </c>
       <c r="DP9">
         <v>302.30810695334679</v>
       </c>
       <c r="DQ9">
-        <v>302.17132838627901</v>
+        <v>302.17132838627913</v>
       </c>
       <c r="DR9">
-        <v>302.01066245516802</v>
+        <v>302.01066245516807</v>
       </c>
       <c r="DS9">
-        <v>301.84878669632781</v>
+        <v>301.84878669632786</v>
       </c>
       <c r="DT9">
-        <v>301.68680093613779</v>
+        <v>301.6868009361379</v>
       </c>
       <c r="DU9">
         <v>301.52545076977583</v>
       </c>
       <c r="DV9">
-        <v>301.06997153881838</v>
+        <v>301.06997153881861</v>
       </c>
       <c r="DW9">
-        <v>300.51500967697228</v>
+        <v>300.51500967697251</v>
       </c>
       <c r="DX9">
-        <v>299.9648517396281</v>
+        <v>299.96485173962833</v>
       </c>
       <c r="DY9">
-        <v>299.41987468186511</v>
+        <v>299.41987468186534</v>
       </c>
       <c r="DZ9">
-        <v>298.79579085516298</v>
+        <v>298.7957908551632</v>
       </c>
       <c r="EA9">
-        <v>297.94744628675454</v>
+        <v>297.94744628675483</v>
       </c>
       <c r="EB9">
-        <v>297.07650921739298</v>
+        <v>297.07650921739327</v>
       </c>
       <c r="EC9">
-        <v>296.20901364068015</v>
+        <v>296.20901364068038</v>
       </c>
       <c r="ED9">
-        <v>295.34873863556328</v>
+        <v>295.34873863556351</v>
       </c>
       <c r="EE9">
-        <v>294.42432570745837</v>
+        <v>294.42432570745859</v>
       </c>
       <c r="EF9">
-        <v>293.44445868504079</v>
+        <v>293.44445868504101</v>
       </c>
       <c r="EG9">
-        <v>292.4565852027863</v>
+        <v>292.45658520278653</v>
       </c>
       <c r="EH9">
-        <v>291.46699638999638</v>
+        <v>291.46699638999667</v>
       </c>
       <c r="EI9">
-        <v>290.47695123068939</v>
+        <v>290.47695123068968</v>
       </c>
       <c r="EJ9">
-        <v>289.48680435843414</v>
+        <v>289.48680435843448</v>
       </c>
       <c r="EK9">
-        <v>288.49272767637439</v>
+        <v>288.49272767637467</v>
       </c>
       <c r="EL9">
-        <v>287.49274153549146</v>
+        <v>287.49274153549175</v>
       </c>
       <c r="EM9">
-        <v>286.49274264185783</v>
+        <v>286.49274264185811</v>
       </c>
       <c r="EN9">
-        <v>285.4927450997335</v>
+        <v>285.49274509973378</v>
       </c>
       <c r="EO9">
-        <v>284.49274782206163</v>
+        <v>284.49274782206192</v>
       </c>
       <c r="EP9">
-        <v>283.49275058910337</v>
+        <v>283.49275058910365</v>
       </c>
       <c r="EQ9">
-        <v>282.4927533913455</v>
+        <v>282.49275339134579</v>
       </c>
       <c r="ER9">
-        <v>281.49275619385185</v>
+        <v>281.49275619385213</v>
       </c>
       <c r="ES9">
-        <v>280.49275899638565</v>
+        <v>280.49275899638593</v>
       </c>
       <c r="ET9">
-        <v>279.49276179892348</v>
+        <v>279.49276179892371</v>
       </c>
       <c r="EU9">
-        <v>278.49276460146439</v>
+        <v>278.49276460146461</v>
       </c>
       <c r="EV9">
-        <v>277.49276740400546</v>
+        <v>277.49276740400569</v>
       </c>
       <c r="EW9">
-        <v>276.4927702065466</v>
+        <v>276.49277020654682</v>
       </c>
       <c r="EX9">
-        <v>275.49277300908773</v>
+        <v>275.49277300908795</v>
       </c>
       <c r="EY9">
-        <v>274.49277581162886</v>
+        <v>274.49277581162909</v>
       </c>
       <c r="EZ9">
-        <v>273.49277861416999</v>
+        <v>273.49277861417022</v>
       </c>
       <c r="FA9">
-        <v>272.49278141671113</v>
+        <v>272.49278141671135</v>
       </c>
       <c r="FB9">
-        <v>271.49278421925226</v>
+        <v>271.49278421925248</v>
       </c>
       <c r="FC9">
-        <v>270.49278702179339</v>
+        <v>270.49278702179362</v>
       </c>
       <c r="FD9">
-        <v>269.49278982433452</v>
+        <v>269.49278982433475</v>
       </c>
       <c r="FE9">
-        <v>268.49279262687566</v>
+        <v>268.49279262687588</v>
       </c>
       <c r="FF9">
-        <v>267.49279542941679</v>
+        <v>267.49279542941701</v>
       </c>
       <c r="FG9">
-        <v>266.49279823195792</v>
+        <v>266.49279823195815</v>
       </c>
       <c r="FH9">
-        <v>265.49280103449905</v>
+        <v>265.49280103449928</v>
       </c>
       <c r="FI9">
-        <v>264.49280383704019</v>
+        <v>264.49280383704041</v>
       </c>
       <c r="FJ9">
-        <v>263.49280663958132</v>
+        <v>263.49280663958154</v>
       </c>
       <c r="FK9">
-        <v>262.49280944212245</v>
+        <v>262.49280944212268</v>
       </c>
       <c r="FL9">
-        <v>261.49281224466358</v>
+        <v>261.49281224466381</v>
       </c>
       <c r="FM9">
-        <v>260.49281504720472</v>
+        <v>260.49281504720494</v>
       </c>
       <c r="FN9">
-        <v>259.49281784974585</v>
+        <v>259.49281784974607</v>
       </c>
       <c r="FO9">
-        <v>258.49282065228698</v>
+        <v>258.49282065228721</v>
       </c>
       <c r="FP9">
-        <v>257.49282345482811</v>
+        <v>257.49282345482834</v>
       </c>
       <c r="FQ9">
-        <v>256.49282625736925</v>
+        <v>256.49282625736947</v>
       </c>
       <c r="FR9">
-        <v>255.49282905991038</v>
+        <v>255.4928290599106</v>
       </c>
       <c r="FS9">
-        <v>254.49283186245151</v>
+        <v>254.49283186245174</v>
       </c>
       <c r="FT9">
-        <v>253.49283466499264</v>
+        <v>253.49283466499287</v>
       </c>
       <c r="FU9">
-        <v>252.49283746753377</v>
+        <v>252.492837467534</v>
       </c>
       <c r="FV9">
-        <v>251.49284027007491</v>
+        <v>251.49284027007513</v>
       </c>
       <c r="FW9">
-        <v>250.49284307261604</v>
+        <v>250.49284307261627</v>
       </c>
       <c r="FX9">
-        <v>249.49284587515717</v>
+        <v>249.4928458751574</v>
       </c>
       <c r="FY9">
-        <v>248.4928486776983</v>
+        <v>248.49284867769853</v>
       </c>
       <c r="FZ9">
-        <v>247.49285148023944</v>
+        <v>247.49285148023966</v>
       </c>
       <c r="GA9">
-        <v>246.49285428278057</v>
+        <v>246.4928542827808</v>
       </c>
       <c r="GB9">
-        <v>245.4928570853217</v>
+        <v>245.49285708532193</v>
       </c>
       <c r="GC9">
-        <v>244.49285988786283</v>
+        <v>244.49285988786306</v>
       </c>
       <c r="GD9">
-        <v>243.49286269040397</v>
+        <v>243.49286269040419</v>
       </c>
       <c r="GE9">
-        <v>242.4928654929451</v>
+        <v>242.49286549294533</v>
       </c>
       <c r="GF9">
-        <v>241.49286829548623</v>
+        <v>241.49286829548646</v>
       </c>
       <c r="GG9">
-        <v>240.49287109802736</v>
+        <v>240.49287109802759</v>
       </c>
       <c r="GH9">
-        <v>239.4928739005685</v>
+        <v>239.49287390056872</v>
       </c>
       <c r="GI9">
-        <v>238.49287670310963</v>
+        <v>238.49287670310986</v>
       </c>
       <c r="GJ9">
-        <v>237.49287950565076</v>
+        <v>237.49287950565099</v>
       </c>
       <c r="GK9">
-        <v>236.49288230819189</v>
+        <v>236.49288230819212</v>
       </c>
       <c r="GL9">
-        <v>235.49288511073303</v>
+        <v>235.49288511073325</v>
       </c>
       <c r="GM9">
-        <v>234.49288791327416</v>
+        <v>234.49288791327439</v>
       </c>
       <c r="GN9">
-        <v>233.49289071652802</v>
+        <v>233.49289071652825</v>
       </c>
       <c r="GO9">
-        <v>232.49289351978189</v>
+        <v>232.49289351978211</v>
       </c>
       <c r="GP9">
-        <v>231.49289632303572</v>
+        <v>231.49289632303595</v>
       </c>
       <c r="GQ9">
-        <v>230.49289912628959</v>
+        <v>230.49289912628981</v>
       </c>
       <c r="GR9">
-        <v>229.49290192954345</v>
+        <v>229.49290192954368</v>
       </c>
       <c r="GS9">
-        <v>228.49290473279729</v>
+        <v>228.49290473279754</v>
       </c>
       <c r="GT9">
-        <v>227.49290753605115</v>
+        <v>227.4929075360514</v>
       </c>
       <c r="GU9">
-        <v>226.49291033930501</v>
+        <v>226.49291033930527</v>
       </c>
       <c r="GV9">
-        <v>225.4929131425589</v>
+        <v>225.49291314255916</v>
       </c>
       <c r="GW9">
-        <v>224.49291594581277</v>
+        <v>224.492915945813</v>
       </c>
       <c r="GX9">
-        <v>223.49291874906663</v>
+        <v>223.49291874906686</v>
       </c>
       <c r="GY9">
-        <v>222.49292155232052</v>
+        <v>222.49292155232072</v>
       </c>
       <c r="GZ9">
-        <v>221.49292435557439</v>
+        <v>221.49292435557459</v>
       </c>
       <c r="HA9">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0</v>
       </c>
@@ -26510,7 +26510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0</v>
       </c>
@@ -29122,7 +29122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0</v>
       </c>
@@ -31734,7 +31734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0</v>
       </c>
@@ -34346,7 +34346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0</v>
       </c>
@@ -36958,7 +36958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0</v>
       </c>
@@ -39570,7 +39570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0</v>
       </c>
@@ -42182,7 +42182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0</v>
       </c>
@@ -44794,7 +44794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0</v>
       </c>
@@ -47406,7 +47406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0</v>
       </c>
@@ -50018,7 +50018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0</v>
       </c>
@@ -52630,7 +52630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0</v>
       </c>
@@ -55242,7 +55242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0</v>
       </c>
@@ -57854,7 +57854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0</v>
       </c>
@@ -60466,7 +60466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0</v>
       </c>
@@ -63078,7 +63078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0</v>
       </c>
